--- a/Gestion/État_QA.xlsx
+++ b/Gestion/État_QA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>État QA de chacun des modules du projet</t>
   </si>
@@ -50,21 +50,12 @@
     <t>3.T.1</t>
   </si>
   <si>
-    <t>3.T.2</t>
-  </si>
-  <si>
-    <t>3.T.3</t>
-  </si>
-  <si>
     <t>3.T.4</t>
   </si>
   <si>
     <t>3.T.5</t>
   </si>
   <si>
-    <t>3.T.6</t>
-  </si>
-  <si>
     <t>3.T.7</t>
   </si>
   <si>
@@ -92,13 +83,13 @@
     <t>En cours</t>
   </si>
   <si>
-    <t>Fait</t>
-  </si>
-  <si>
     <t>Δ</t>
   </si>
   <si>
     <t>À créer</t>
+  </si>
+  <si>
+    <t>Faite</t>
   </si>
 </sst>
 </file>
@@ -163,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -192,13 +183,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:M23"/>
+  <dimension ref="D2:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,13 +541,13 @@
     </row>
     <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D3" s="2"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D4" s="2"/>
@@ -561,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -574,15 +571,15 @@
         <v>2</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
@@ -590,16 +587,16 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.3">
@@ -608,16 +605,16 @@
         <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.3">
@@ -625,17 +622,17 @@
       <c r="H9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>23</v>
+      <c r="I9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.3">
@@ -643,11 +640,11 @@
       <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>23</v>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.3">
@@ -655,11 +652,11 @@
       <c r="H11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>23</v>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.3">
@@ -667,11 +664,11 @@
       <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>23</v>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.3">
@@ -679,11 +676,11 @@
       <c r="H13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>23</v>
+      <c r="I13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.3">
@@ -691,86 +688,50 @@
       <c r="H14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
-      <c r="H15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>23</v>
+      <c r="F15" s="5"/>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="2"/>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>23</v>
+      <c r="F16" s="5"/>
+      <c r="H16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
-      <c r="H17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="H18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:10" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="H19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
